--- a/sample_excel_api.xlsx
+++ b/sample_excel_api.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sathvikbhat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9AE1FC-19B3-9041-8E05-824F7A505F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D3585-0293-2B49-9D51-722827804855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="17240" xr2:uid="{21CCE167-1F61-6041-AB73-1E27E32919ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Applicant_Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Company_Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Directors_Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Bank_Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="187">
   <si>
     <t>Company Name</t>
   </si>
@@ -55,21 +58,6 @@
     <t>Company Email</t>
   </si>
   <si>
-    <t>ABC Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>U12345DL2022</t>
-  </si>
-  <si>
-    <t>07ABCDE1234F1Z5</t>
-  </si>
-  <si>
-    <t>AACCA1234C</t>
-  </si>
-  <si>
-    <t>info@abcpvtltd.com</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -85,9 +73,6 @@
     <t>Designation</t>
   </si>
   <si>
-    <t>No. of Directors</t>
-  </si>
-  <si>
     <t>Director</t>
   </si>
   <si>
@@ -112,77 +97,515 @@
     <t>Director Aadhaar</t>
   </si>
   <si>
-    <t>Rohan</t>
-  </si>
-  <si>
     <t>Kumar</t>
   </si>
   <si>
-    <t>rohan.kumar@abcinfotech.in</t>
-  </si>
-  <si>
     <t>CEO</t>
   </si>
   <si>
-    <t>Priya</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>priya.sharma@abcinfotech.in</t>
-  </si>
-  <si>
-    <t>AABCS7890L</t>
-  </si>
-  <si>
     <t>Total Current No. of Loans</t>
   </si>
   <si>
     <t>Total Current No. of ODs</t>
   </si>
   <si>
-    <t>Total Current Loan outstanding</t>
-  </si>
-  <si>
-    <t>Current total EMI</t>
-  </si>
-  <si>
-    <t>Any dues missed in last 3 months</t>
-  </si>
-  <si>
-    <t>Any dues missed in last 6 months</t>
-  </si>
-  <si>
-    <t>Any dues missed in last 18 months</t>
-  </si>
-  <si>
-    <t>Any dues missed in last 12 months</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Aadhar</t>
   </si>
   <si>
-    <t>Company Adderess</t>
-  </si>
-  <si>
     <t>Company MSME</t>
   </si>
   <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
     <t>Micro</t>
+  </si>
+  <si>
+    <t>Company Address</t>
+  </si>
+  <si>
+    <t>ABC Corp</t>
+  </si>
+  <si>
+    <t>U12345</t>
+  </si>
+  <si>
+    <t>12ABC1234G</t>
+  </si>
+  <si>
+    <t>ABCD1234P</t>
+  </si>
+  <si>
+    <t>abc@example.com</t>
+  </si>
+  <si>
+    <t>Mumbai, India</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>DEF Ltd</t>
+  </si>
+  <si>
+    <t>U67890</t>
+  </si>
+  <si>
+    <t>34DEF5678H</t>
+  </si>
+  <si>
+    <t>DEFG5678P</t>
+  </si>
+  <si>
+    <t>def@example.com</t>
+  </si>
+  <si>
+    <t>Delhi, India</t>
+  </si>
+  <si>
+    <t>GHI Inc</t>
+  </si>
+  <si>
+    <t>U34567</t>
+  </si>
+  <si>
+    <t>90GHI2345J</t>
+  </si>
+  <si>
+    <t>GHIJ2345P</t>
+  </si>
+  <si>
+    <t>ghi@example.com</t>
+  </si>
+  <si>
+    <t>Chennai, India</t>
+  </si>
+  <si>
+    <t>JKL Pvt</t>
+  </si>
+  <si>
+    <t>U90123</t>
+  </si>
+  <si>
+    <t>45JKL6789K</t>
+  </si>
+  <si>
+    <t>JKLK6789P</t>
+  </si>
+  <si>
+    <t>jkl@example.com</t>
+  </si>
+  <si>
+    <t>Bengaluru, India</t>
+  </si>
+  <si>
+    <t>MNO Corp</t>
+  </si>
+  <si>
+    <t>U45678</t>
+  </si>
+  <si>
+    <t>67MNO3456L</t>
+  </si>
+  <si>
+    <t>MNOK3456P</t>
+  </si>
+  <si>
+    <t>mno@example.com</t>
+  </si>
+  <si>
+    <t>Hyderabad, India</t>
+  </si>
+  <si>
+    <t>PQR Ltd</t>
+  </si>
+  <si>
+    <t>U23456</t>
+  </si>
+  <si>
+    <t>89PQR1234M</t>
+  </si>
+  <si>
+    <t>PQRI1234P</t>
+  </si>
+  <si>
+    <t>pqr@example.com</t>
+  </si>
+  <si>
+    <t>Pune, India</t>
+  </si>
+  <si>
+    <t>STU Inc</t>
+  </si>
+  <si>
+    <t>U56789</t>
+  </si>
+  <si>
+    <t>12STU5678N</t>
+  </si>
+  <si>
+    <t>STUK5678P</t>
+  </si>
+  <si>
+    <t>stu@example.com</t>
+  </si>
+  <si>
+    <t>Kolkata, India</t>
+  </si>
+  <si>
+    <t>VWX Pvt</t>
+  </si>
+  <si>
+    <t>U78901</t>
+  </si>
+  <si>
+    <t>34VWX9012O</t>
+  </si>
+  <si>
+    <t>VWXO9012P</t>
+  </si>
+  <si>
+    <t>vwx@example.com</t>
+  </si>
+  <si>
+    <t>Ahmedabad, India</t>
+  </si>
+  <si>
+    <t>YZ Corp</t>
+  </si>
+  <si>
+    <t>U12346</t>
+  </si>
+  <si>
+    <t>56YZC3456P</t>
+  </si>
+  <si>
+    <t>YZCK3456P</t>
+  </si>
+  <si>
+    <t>yz@example.com</t>
+  </si>
+  <si>
+    <t>Jaipur, India</t>
+  </si>
+  <si>
+    <t>XYZ Ltd</t>
+  </si>
+  <si>
+    <t>U67891</t>
+  </si>
+  <si>
+    <t>78XYZ2345Q</t>
+  </si>
+  <si>
+    <t>XYZK2345P</t>
+  </si>
+  <si>
+    <t>xyz@example.com</t>
+  </si>
+  <si>
+    <t>Lucknow, India</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>jane.smith@example.com</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>bob.johnson@example.com</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>alice.brown@example.com</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>mike.davis@example.com</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>emma.taylor@example.com</t>
+  </si>
+  <si>
+    <t>Officer</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>david.lee@example.com</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>sophia.patel@example.com</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>olivia.singh@example.com</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>ava.kumar@example.com</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Total Current Loan Outstanding</t>
+  </si>
+  <si>
+    <t>Current Total EMI</t>
+  </si>
+  <si>
+    <t>Any Dues Missed in Last 6 Months</t>
+  </si>
+  <si>
+    <t>Any Dues Missed in Last 12 Months</t>
+  </si>
+  <si>
+    <t>Any Dues Missed in Last 18 Months</t>
+  </si>
+  <si>
+    <t>Applicant id</t>
+  </si>
+  <si>
+    <t>bbb40075e7e94f7581973152351606e1</t>
+  </si>
+  <si>
+    <t>388da1920fcd4f0fbd61123827089c12</t>
+  </si>
+  <si>
+    <t>2b34a76741d8410ca764c2c8a373abb5</t>
+  </si>
+  <si>
+    <t>1abbf0c30b4f43759a432d331dc3a4cb</t>
+  </si>
+  <si>
+    <t>37fe7884739f40d5974aec28bda6f13e</t>
+  </si>
+  <si>
+    <t>eb36043538124098b424188b7ebf010e</t>
+  </si>
+  <si>
+    <t>33e3c08b31044432a3ba88663562355d</t>
+  </si>
+  <si>
+    <t>3db84d47ae5a48609333c06600f55213</t>
+  </si>
+  <si>
+    <t>81d0910d7e01459d9d4950de9e80500a</t>
+  </si>
+  <si>
+    <t>98b9421e5b564048967b9354160e4221</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Account No.</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>IFSC Code</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>Alice Brown</t>
+  </si>
+  <si>
+    <t>Mike Davis</t>
+  </si>
+  <si>
+    <t>Emma Taylor</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>Sophia Patel</t>
+  </si>
+  <si>
+    <t>Olivia Singh</t>
+  </si>
+  <si>
+    <t>Ava Kumar</t>
+  </si>
+  <si>
+    <t>State Bank of India</t>
+  </si>
+  <si>
+    <t>SBIN000123</t>
+  </si>
+  <si>
+    <t>HDFC Bank</t>
+  </si>
+  <si>
+    <t>HDFC000456</t>
+  </si>
+  <si>
+    <t>ICICI Bank</t>
+  </si>
+  <si>
+    <t>ICIC000789</t>
+  </si>
+  <si>
+    <t>Axis Bank</t>
+  </si>
+  <si>
+    <t>UTIB000012</t>
+  </si>
+  <si>
+    <t>Punjab National Bank</t>
+  </si>
+  <si>
+    <t>PUNB000345</t>
+  </si>
+  <si>
+    <t>Bank of Baroda</t>
+  </si>
+  <si>
+    <t>BARB000678</t>
+  </si>
+  <si>
+    <t>Canara Bank</t>
+  </si>
+  <si>
+    <t>CNRB000901</t>
+  </si>
+  <si>
+    <t>Union Bank of India</t>
+  </si>
+  <si>
+    <t>UBIN000234</t>
+  </si>
+  <si>
+    <t>Indian Bank</t>
+  </si>
+  <si>
+    <t>IDIB000567</t>
+  </si>
+  <si>
+    <t>Yes Bank</t>
+  </si>
+  <si>
+    <t>YESB000890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengaluru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Delhi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyderabad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolkata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,7 +673,51 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Var(--body-emphasized-font-fami"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Var(--body-font-family)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -277,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,12 +763,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,237 +1101,1496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395DBB06-AF9E-FE46-9EA0-E162A5E9CC71}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19">
+      <c r="A1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19">
+      <c r="A2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="17">
+        <v>9876543210</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="17">
+        <v>123456789012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19">
+      <c r="A3" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="17">
+        <v>9876543211</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="17">
+        <v>234567890123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19">
+      <c r="A4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="17">
+        <v>9876543212</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="17">
+        <v>345678901234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19">
+      <c r="A5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="17">
+        <v>9876543213</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="17">
+        <v>456789012345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19">
+      <c r="A6" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="17">
+        <v>9876543214</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="17">
+        <v>567890123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19">
+      <c r="A7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="17">
+        <v>9876543215</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="17">
+        <v>678901234567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19">
+      <c r="A8" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="17">
+        <v>9876543216</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="17">
+        <v>789012345678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19">
+      <c r="A9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="17">
+        <v>9876543217</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="17">
+        <v>890123456789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19">
+      <c r="A10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="17">
+        <v>9876543218</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="17">
+        <v>901234567890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19">
+      <c r="A11" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="17">
+        <v>9876543219</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="17">
+        <v>12345678901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FF1433-F15E-7B4B-8C7C-D1160A15B34F}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32.83203125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="30.83203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="32.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="27" style="2" customWidth="1"/>
-    <col min="17" max="17" width="29.83203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="33.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="32.1640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="33.33203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="23" style="2" customWidth="1"/>
-    <col min="23" max="23" width="25.6640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="41.83203125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="37.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="48.33203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="24.1640625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="46" style="2" customWidth="1"/>
-    <col min="29" max="29" width="42.83203125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="43.1640625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="43" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="33.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="30.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="32.83203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="27" style="2" customWidth="1"/>
+    <col min="18" max="18" width="29.83203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="25.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="33.33203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="32.1640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="33.33203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="23" style="2" customWidth="1"/>
+    <col min="24" max="24" width="25.6640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="41.83203125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="37.33203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="48.33203125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="24.1640625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="46" style="2" customWidth="1"/>
+    <col min="30" max="30" width="42.83203125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="43.1640625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="43" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" ht="23" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" ht="21">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="11">
+        <v>9876543210</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="9"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="11">
+        <v>9876543211</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1112345678</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F4" s="11">
+        <v>9876543212</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I4" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="11">
+        <v>9876543213</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="11">
+        <v>9876543214</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="4">
-        <v>9876543210</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="4">
-        <v>123456789</v>
-      </c>
-      <c r="O2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="4">
-        <v>9876543211</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="4">
-        <v>88888888888</v>
-      </c>
-      <c r="W2" s="2">
-        <v>3</v>
-      </c>
-      <c r="X2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>5000000</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>125000</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>41</v>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="11">
+        <v>9876543215</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="11">
+        <v>9876543216</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="11">
+        <v>9876543217</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="11">
+        <v>9876543218</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="11">
+        <v>9876543219</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{C8CE6977-9C86-B841-B1BD-12540F3D04DE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29D2C23-3933-CB4E-8415-C158051ECBC5}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.83203125" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" customWidth="1"/>
+    <col min="11" max="11" width="46.83203125" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="46.5" customWidth="1"/>
+    <col min="14" max="14" width="47" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="19">
+      <c r="A2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="17">
+        <v>9876543210</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="17">
+        <v>123456789012</v>
+      </c>
+      <c r="I2" s="17">
+        <v>2</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1</v>
+      </c>
+      <c r="K2" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="L2" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="19">
+      <c r="A3" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="17">
+        <v>9876543211</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="17">
+        <v>234567890123</v>
+      </c>
+      <c r="I3" s="17">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17">
+        <v>2</v>
+      </c>
+      <c r="K3" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="L3" s="17">
+        <v>100000</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="19">
+      <c r="A4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="17">
+        <v>9876543212</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="17">
+        <v>345678901234</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>500000</v>
+      </c>
+      <c r="L4" s="17">
+        <v>25000</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="19">
+      <c r="A5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="17">
+        <v>9876543213</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="17">
+        <v>456789012345</v>
+      </c>
+      <c r="I5" s="17">
+        <v>4</v>
+      </c>
+      <c r="J5" s="17">
+        <v>3</v>
+      </c>
+      <c r="K5" s="17">
+        <v>3000000</v>
+      </c>
+      <c r="L5" s="17">
+        <v>150000</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="19">
+      <c r="A6" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="17">
+        <v>9876543214</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="17">
+        <v>567890123456</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1500000</v>
+      </c>
+      <c r="L6" s="17">
+        <v>75000</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="19">
+      <c r="A7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="17">
+        <v>9876543215</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="17">
+        <v>678901234567</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>750000</v>
+      </c>
+      <c r="L7" s="17">
+        <v>37500</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19">
+      <c r="A8" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="17">
+        <v>9876543216</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="17">
+        <v>789012345678</v>
+      </c>
+      <c r="I8" s="17">
+        <v>3</v>
+      </c>
+      <c r="J8" s="17">
+        <v>2</v>
+      </c>
+      <c r="K8" s="17">
+        <v>2500000</v>
+      </c>
+      <c r="L8" s="17">
+        <v>125000</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="19">
+      <c r="A9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="17">
+        <v>9876543217</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="17">
+        <v>890123456789</v>
+      </c>
+      <c r="I9" s="17">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17">
+        <v>1200000</v>
+      </c>
+      <c r="L9" s="17">
+        <v>60000</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19">
+      <c r="A10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="17">
+        <v>9876543218</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="17">
+        <v>901234567890</v>
+      </c>
+      <c r="I10" s="17">
+        <v>4</v>
+      </c>
+      <c r="J10" s="17">
+        <v>3</v>
+      </c>
+      <c r="K10" s="17">
+        <v>3500000</v>
+      </c>
+      <c r="L10" s="17">
+        <v>175000</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="19">
+      <c r="A11" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="17">
+        <v>9876543219</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="17">
+        <v>12345678901</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>400000</v>
+      </c>
+      <c r="L11" s="17">
+        <v>20000</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA03C006-C5FC-6740-B420-CAC1D57C1DFB}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19">
+      <c r="A1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19">
+      <c r="A2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="17">
+        <v>9154268521</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="17">
+        <v>7321985689</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="19" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="17">
+        <v>4218976532</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="19" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="17">
+        <v>6543210987</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="19" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="17">
+        <v>9821765432</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="19" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1234567890</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="19" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="17">
+        <v>8765432109</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="19" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="17">
+        <v>5678901234</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="19" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="17">
+        <v>3456789012</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="19" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="17">
+        <v>8901234567</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="19" customHeight="1">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>